--- a/PxM_PPC_RL/CAIE/Rev1/visuals/eps.xlsx
+++ b/PxM_PPC_RL/CAIE/Rev1/visuals/eps.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w_kevi02\sciebo\PhD\01 Prescriptive Maintenance\30 RQ3 - Digital Twin\PxM &amp; PPC (R)\RL-PxM\PxM_PPC_RL\CAIE\Rev1\visuals\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5708F2E-A4A5-4F03-9889-45385D0FCE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7185" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>action</t>
   </si>
@@ -39,12 +45,15 @@
   <si>
     <t>old_order</t>
   </si>
+  <si>
+    <t>true_health</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,15 +112,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +481,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -455,8 +513,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,28 +525,31 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.9005000000000004</v>
+        <v>0.9287000000000003</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -493,65 +557,71 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.8371999999999996</v>
+        <v>0.87559999999999993</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7651000000000002</v>
+        <v>0.83539999999999948</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4214999999999995</v>
+        <v>0.82119999999999915</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -563,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -571,8 +641,11 @@
       <c r="I6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -580,28 +653,31 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.3562999999999997</v>
+        <v>0.60840000000000027</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -609,164 +685,179 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.2012999999999999</v>
+        <v>0.57680000000000031</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.2031000000000001</v>
+        <v>0.48929999999999979</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0.2881999999999999</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>0.6016000000000006</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-26</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.5801000000000005</v>
+        <v>0.34889999999999971</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5671000000000004</v>
+        <v>0.25850000000000012</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.8369999999999993</v>
+        <v>0.23039999999999999</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -774,37 +865,43 @@
       <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>0.7810000000000004</v>
+        <v>0.99400000000000099</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>-21</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -812,28 +909,31 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0.6912000000000005</v>
+        <v>0.9788</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -841,19 +941,19 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.6608000000000002</v>
+        <v>0.89029999999999998</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -861,28 +961,31 @@
       <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0.5921000000000001</v>
+        <v>0.84389999999999932</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -890,66 +993,75 @@
       <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3349</v>
+        <v>0.83119999999999905</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3895000000000002</v>
+        <v>0.82809999999999961</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -957,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.3114999999999998</v>
+        <v>0.76270000000000016</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -969,53 +1081,59 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>0.2645</v>
+        <v>0.69440000000000024</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0.1972</v>
+        <v>0.6797000000000003</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1027,65 +1145,71 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.1488</v>
+        <v>0.48880000000000001</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0.6071000000000008</v>
+        <v>0.3483</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-32</v>
+        <v>14</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1093,37 +1217,43 @@
       <c r="I24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0.5831000000000006</v>
+        <v>0.30940000000000001</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1131,115 +1261,127 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.5474000000000003</v>
+        <v>0.22219999999999979</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>0.8856999999999993</v>
+        <v>0.2160999999999999</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>0.8701999999999995</v>
+        <v>0.98410000000000097</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>0.8570999999999998</v>
+        <v>0.67700000000000105</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1247,19 +1389,19 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.8057000000000003</v>
+        <v>0.6371</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1267,8 +1409,11 @@
       <c r="I30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1276,19 +1421,19 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.7491000000000002</v>
+        <v>0.76190000000000013</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1296,66 +1441,75 @@
       <c r="I31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>0.7313</v>
+        <v>0.47769999999999979</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.6538</v>
+        <v>0.35819999999999991</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1363,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>0.5627000000000003</v>
+        <v>0.1731</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1375,36 +1529,39 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>0.5032000000000001</v>
+        <v>0.12549999999999989</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1412,66 +1569,75 @@
       <c r="I35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>0.4661000000000002</v>
+        <v>0.94490000000000096</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>0.3835999999999998</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1479,36 +1645,39 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0.4110000000000003</v>
+        <v>0.84719999999999995</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>0.2693999999999998</v>
+        <v>0.85689999999999944</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1520,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1528,8 +1697,11 @@
       <c r="I39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1537,86 +1709,95 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>0.2381999999999999</v>
+        <v>0.79520000000000068</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>0.2052999999999999</v>
+        <v>0.76240000000000008</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.6016000000000006</v>
+        <v>0.70270000000000044</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>-31</v>
+        <v>25</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1624,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>0.5732000000000006</v>
+        <v>0.33829999999999988</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1636,16 +1817,19 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1653,65 +1837,71 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>0.5496000000000003</v>
+        <v>0.20449999999999999</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.8615999999999998</v>
+        <v>0.16969999999999999</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>0.7823</v>
+        <v>0.99250000000000005</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1723,36 +1913,39 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>-36</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>0.7052999999999997</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -1760,8 +1953,11 @@
       <c r="I47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1769,65 +1965,71 @@
         <v>4</v>
       </c>
       <c r="C48">
-        <v>0.6666000000000004</v>
+        <v>0.87880000000000102</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>28</v>
+        <v>-10</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>0.5836000000000001</v>
+        <v>0.86119999999999963</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>0.5462000000000001</v>
+        <v>0.8372999999999996</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1836,213 +2038,234 @@
         <v>3</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>0.4182000000000001</v>
+        <v>0.73770000000000013</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0.3338999999999999</v>
+        <v>0.69230000000000014</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>0.2901</v>
+        <v>0.66380000000000028</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>-22</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.3078999999999998</v>
+        <v>0.6552</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>0.6014000000000006</v>
+        <v>0.5897</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>-57</v>
+        <v>-4</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>0.5803000000000006</v>
+        <v>0.44180000000000003</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>0.5655000000000004</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>16</v>
+        <v>-31</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2050,74 +2273,83 @@
       <c r="I57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>0.8133999999999998</v>
+        <v>0.91879999999999995</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.6002000000000002</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.3683999999999997</v>
+        <v>0.90149999999999975</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -2129,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2137,8 +2369,11 @@
       <c r="I60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2146,28 +2381,31 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>0.4035999999999994</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2175,144 +2413,159 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.3732999999999999</v>
+        <v>0.83989999999999965</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.3398999999999999</v>
+        <v>0.78190000000000071</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>0.2758999999999998</v>
+        <v>0.68349999999999977</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>0.2132</v>
+        <v>0.63550000000000006</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.6071000000000008</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>-28</v>
+        <v>12</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2320,135 +2573,147 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>0.5868000000000007</v>
+        <v>0.59060000000000068</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0.5744000000000004</v>
+        <v>0.57900000000000063</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>0.8598999999999996</v>
+        <v>0.47899999999999993</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0.8089000000000002</v>
+        <v>0.50190000000000046</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.5992</v>
+        <v>0.44769999999999982</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -2456,8 +2721,11 @@
       <c r="I71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2465,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>0.7165999999999997</v>
+        <v>0.41129999999999989</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2477,74 +2745,83 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0.6690999999999999</v>
+        <v>0.39639999999999992</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>0.6410000000000003</v>
+        <v>0.35609999999999992</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2552,19 +2829,19 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>0.4984000000000002</v>
+        <v>0.33159999999999967</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2572,8 +2849,11 @@
       <c r="I75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2581,28 +2861,31 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>0.5281999999999996</v>
+        <v>0.3217000000000001</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2610,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>0.4924000000000002</v>
+        <v>8.6999999999999938E-2</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2622,140 +2905,155 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>0.4411</v>
+        <v>0.1063999999999999</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>0.4144</v>
+        <v>0.105200000000001</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>-35</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>0.2646000000000002</v>
+        <v>0.98370000000000102</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>0.3159</v>
+        <v>0.84089999999999998</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.6291000000000001</v>
+        <v>0.85719999999999985</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -2767,16 +3065,19 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>-38</v>
+        <v>34</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2784,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="C83">
-        <v>0.5932999999999998</v>
+        <v>0.79080000000000017</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2804,66 +3105,75 @@
       <c r="I83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>0.6122000000000001</v>
+        <v>0.70439999999999969</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>0.8791000000000004</v>
+        <v>0.66840000000000077</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2871,19 +3181,19 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.8129999999999997</v>
+        <v>0.58830000000000027</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2891,141 +3201,156 @@
       <c r="I86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>0.7806000000000003</v>
+        <v>0.50119999999999987</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.7486</v>
+        <v>0.37149999999999977</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>0.6746999999999997</v>
+        <v>0.29570000000000002</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.4682000000000002</v>
+        <v>0.24649999999999991</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>38</v>
+        <v>-8</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C91">
-        <v>0.5560000000000006</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>28</v>
@@ -3034,18 +3359,21 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>0.3473999999999999</v>
+        <v>0.103700000000001</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -3057,16 +3385,19 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>36</v>
+        <v>-27</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3074,106 +3405,115 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>0.1121</v>
+        <v>0.97650000000000103</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J93">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>0.1044</v>
+        <v>0.87290000000000001</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.5901000000000006</v>
+        <v>0.87980000000000003</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>0.5808000000000005</v>
+        <v>0.83559999999999912</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3181,28 +3521,31 @@
       <c r="I96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.5409000000000003</v>
+        <v>0.81900000000000039</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -3210,16 +3553,19 @@
       <c r="I97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>0.8650999999999999</v>
+        <v>0.7593000000000002</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -3231,16 +3577,19 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3248,28 +3597,31 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>0.8088999999999996</v>
+        <v>0.59550000000000014</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3277,83 +3629,92 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>0.4986000000000004</v>
+        <v>0.32969999999999983</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>0.4976000000000003</v>
+        <v>0.1091</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>0.4362000000000002</v>
+        <v>0.1126999999999999</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="J102">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
